--- a/ModernRetail/Commonfolder/ProductRatesList.xlsx
+++ b/ModernRetail/Commonfolder/ProductRatesList.xlsx
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BRANCH</t>
-  </si>
-  <si>
-    <t>ITEM CODE</t>
-  </si>
-  <si>
-    <t>ITEM NAME</t>
   </si>
   <si>
     <t>SPECIAL PRICE</t>
   </si>
   <si>
-    <t>USER LOGIN ID</t>
+    <t>PRODUCT CODE</t>
+  </si>
+  <si>
+    <t>PRODUCT NAME</t>
   </si>
 </sst>
 </file>
@@ -68,7 +65,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,26 +88,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -409,7 +394,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -418,24 +403,21 @@
     <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
